--- a/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 16,5</t>
+          <t>2,67; 16,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 14,01</t>
+          <t>-0,12; 13,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,99</t>
+          <t>-5,68; 6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 13,72</t>
+          <t>-2,42; 13,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 5,59</t>
+          <t>-9,99; 5,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 1,32</t>
+          <t>-13,18; 0,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 14,06</t>
+          <t>3,11; 13,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 8,23</t>
+          <t>-2,09; 8,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,21</t>
+          <t>-6,32; 2,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 43,78</t>
+          <t>6,05; 43,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 36,5</t>
+          <t>-0,48; 35,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 21,16</t>
+          <t>-12,72; 18,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 29,21</t>
+          <t>-4,48; 28,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 12,1</t>
+          <t>-18,04; 10,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 2,71</t>
+          <t>-23,81; 1,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 33,21</t>
+          <t>6,51; 31,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 19,46</t>
+          <t>-4,18; 18,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 7,78</t>
+          <t>-13,48; 7,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 16,44</t>
+          <t>2,13; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 14,14</t>
+          <t>-0,32; 15,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 4,23</t>
+          <t>-9,28; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 17,11</t>
+          <t>1,96; 17,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 5,81</t>
+          <t>-9,42; 5,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 1,62</t>
+          <t>-12,17; 2,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 13,75</t>
+          <t>3,33; 13,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,92</t>
+          <t>-2,21; 7,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,46</t>
+          <t>-9,66; 0,67</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 47,07</t>
+          <t>5,14; 50,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 39,86</t>
+          <t>-1,65; 43,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 11,65</t>
+          <t>-21,26; 14,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 33,6</t>
+          <t>3,49; 34,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 11,23</t>
+          <t>-16,11; 11,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 3,1</t>
+          <t>-20,56; 3,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 30,86</t>
+          <t>6,71; 31,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 18,33</t>
+          <t>-4,57; 17,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 1,09</t>
+          <t>-19,33; 1,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 14,68</t>
+          <t>2,48; 14,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 11,44</t>
+          <t>-0,34; 12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 2,43</t>
+          <t>-37,78; 1,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 18,34</t>
+          <t>-2,31; 17,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 14,17</t>
+          <t>-7,91; 14,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 7,0</t>
+          <t>-12,22; 7,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,22</t>
+          <t>4,02; 14,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 10,82</t>
+          <t>-0,11; 10,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 1,31</t>
+          <t>-35,4; 1,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 35,47</t>
+          <t>5,2; 35,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 27,32</t>
+          <t>-0,9; 29,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,39; 5,61</t>
+          <t>-78,39; 4,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 35,71</t>
+          <t>-3,49; 35,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 27,13</t>
+          <t>-12,7; 28,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 13,67</t>
+          <t>-19,36; 14,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 31,93</t>
+          <t>7,75; 31,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 23,74</t>
+          <t>-0,42; 23,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,7; 2,76</t>
+          <t>-71,47; 2,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,58</t>
+          <t>-1,05; 7,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,61</t>
+          <t>-1,76; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -1,0</t>
+          <t>-9,89; -1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,59</t>
+          <t>2,21; 13,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,07</t>
+          <t>-3,36; 6,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 26,29</t>
+          <t>-6,6; 26,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,35</t>
+          <t>1,72; 8,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,39</t>
+          <t>-0,87; 5,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 15,28</t>
+          <t>-6,03; 16,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 16,47</t>
+          <t>-2,12; 16,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 12,22</t>
+          <t>-3,51; 13,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -2,22</t>
+          <t>-19,85; -2,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 25,06</t>
+          <t>3,77; 25,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 14,23</t>
+          <t>-6,09; 13,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 50,76</t>
+          <t>-12,24; 50,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,33; 17,28</t>
+          <t>3,34; 16,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 11,13</t>
+          <t>-1,7; 11,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 31,5</t>
+          <t>-11,86; 33,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,61</t>
+          <t>-3,8; 10,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,93</t>
+          <t>0,12; 13,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 11,08</t>
+          <t>-4,61; 9,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 11,68</t>
+          <t>0,7; 11,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 10,09</t>
+          <t>-0,89; 9,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 9,38</t>
+          <t>-9,42; 9,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,04</t>
+          <t>0,37; 9,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,94</t>
+          <t>0,12; 8,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,09</t>
+          <t>-5,07; 8,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 24,68</t>
+          <t>-7,83; 26,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,76; 35,93</t>
+          <t>0,42; 36,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 27,88</t>
+          <t>-9,7; 24,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,65; 21,28</t>
+          <t>1,08; 21,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 18,15</t>
+          <t>-1,49; 17,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 16,5</t>
+          <t>-15,61; 18,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,6; 18,03</t>
+          <t>0,62; 18,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,5; 17,66</t>
+          <t>0,17; 17,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 15,73</t>
+          <t>-9,44; 17,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 11,03</t>
+          <t>-4,81; 10,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 10,38</t>
+          <t>-4,54; 10,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 8,17</t>
+          <t>-11,91; 10,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,4</t>
+          <t>3,42; 11,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,22</t>
+          <t>-6,32; 2,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 3,08</t>
+          <t>-6,69; 2,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,11</t>
+          <t>2,96; 10,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 2,48</t>
+          <t>-5,07; 2,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,19</t>
+          <t>-7,53; 1,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 43,56</t>
+          <t>-14,96; 40,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 40,2</t>
+          <t>-13,68; 43,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 31,34</t>
+          <t>-37,31; 40,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,75; 22,54</t>
+          <t>6,16; 23,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 4,43</t>
+          <t>-11,36; 4,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 5,92</t>
+          <t>-12,26; 4,3</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,83; 21,98</t>
+          <t>5,81; 21,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 5,3</t>
+          <t>-10,02; 5,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 2,43</t>
+          <t>-15,25; 2,65</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,06</t>
+          <t>3,32; 8,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,2</t>
+          <t>2,47; 7,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -0,94</t>
+          <t>-13,29; -0,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,91</t>
+          <t>5,45; 10,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,98</t>
+          <t>-1,85; 3,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 10,72</t>
+          <t>-4,37; 9,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,39</t>
+          <t>4,84; 8,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,61</t>
+          <t>0,91; 4,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,3</t>
+          <t>-7,41; 2,15</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>7,1; 19,39</t>
+          <t>7,39; 19,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>5,35; 17,18</t>
+          <t>5,63; 17,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,76; -2,15</t>
+          <t>-31,03; -2,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,7</t>
+          <t>9,87; 19,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,68</t>
+          <t>-3,32; 6,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 20,22</t>
+          <t>-8,01; 17,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,83; 17,45</t>
+          <t>9,71; 17,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,57</t>
+          <t>1,82; 9,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 4,61</t>
+          <t>-15,14; 4,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
